--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Dropbox/DraftTable/Repos/psyc7709/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF64B69-D3E8-7542-8481-186293B11E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Week</t>
   </si>
@@ -35,163 +36,127 @@
     <t>Date</t>
   </si>
   <si>
-    <t>M Jan 28</t>
-  </si>
-  <si>
-    <t>M Feb 4</t>
-  </si>
-  <si>
-    <t>M Feb 11</t>
-  </si>
-  <si>
-    <t>**M Feb 18**</t>
-  </si>
-  <si>
-    <t>M Feb 25</t>
-  </si>
-  <si>
-    <t>M Mar 4</t>
-  </si>
-  <si>
-    <t>M Mar 11</t>
-  </si>
-  <si>
-    <t>M Mar 18</t>
-  </si>
-  <si>
-    <t>M Mar 25</t>
-  </si>
-  <si>
-    <t>M Apr 1</t>
-  </si>
-  <si>
-    <t>M Apr 8</t>
-  </si>
-  <si>
-    <t>M Apr 15</t>
-  </si>
-  <si>
-    <t>M Apr 22</t>
-  </si>
-  <si>
-    <t>M Apr 29</t>
-  </si>
-  <si>
-    <t>M May 6</t>
-  </si>
-  <si>
-    <t>M May 13</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
     <t>Before class</t>
   </si>
   <si>
-    <t>No Class</t>
-  </si>
-  <si>
-    <t>Spring Recess</t>
-  </si>
-  <si>
-    <t>[Getting Started](https://crumplab.github.io/psyc7709/Schedule.html#getting_started)</t>
-  </si>
-  <si>
-    <t>[Introduction to R Markdown](https://crumplab.github.io/psyc7709/Schedule.html#1_r,_r_markdown,_websites,__github)</t>
-  </si>
-  <si>
-    <t>[Basic Programming in R I](https://crumplab.github.io/psyc7709/Schedule.html#2_basic_programming_in_r_i)</t>
-  </si>
-  <si>
-    <t>[Basic Programming in R II](https://crumplab.github.io/psyc7709/Schedule.html#3_basic_programming_in_r_ii)</t>
-  </si>
-  <si>
-    <t>[Common inferential tests](https://crumplab.github.io/psyc7709/Schedule.html#6_common_inferential_tests)</t>
-  </si>
-  <si>
-    <t>[Data Simulation](https://crumplab.github.io/psyc7709/Schedule.html#7_data_simulation)</t>
-  </si>
-  <si>
-    <t>[R Markdown Presentations](https://crumplab.github.io/psyc7709/Schedule.html#12_r_markdown_presentations)</t>
-  </si>
-  <si>
-    <t>[Bookdown](https://crumplab.github.io/psyc7709/Schedule.html#13_r_markdown_books)</t>
-  </si>
-  <si>
-    <t>[Final Project Presentations](https://crumplab.github.io/psyc7709/Schedule.html#14_presentations)</t>
-  </si>
-  <si>
-    <t>Assignments</t>
-  </si>
-  <si>
-    <t>Midterm project due</t>
-  </si>
-  <si>
-    <t>Presentations due</t>
-  </si>
-  <si>
-    <t>Final project due</t>
-  </si>
-  <si>
-    <t>M May 20</t>
-  </si>
-  <si>
-    <t>week I due (website)</t>
-  </si>
-  <si>
-    <t>week 2 due (basics I)</t>
-  </si>
-  <si>
-    <t>week 3 due (basics II)</t>
-  </si>
-  <si>
-    <t>week 6 due (stats)</t>
-  </si>
-  <si>
-    <t>week 9 due (shiny)</t>
-  </si>
-  <si>
-    <t>week 10 due (optimization)</t>
-  </si>
-  <si>
-    <t>[APA Papers with papaja](https://crumplab.github.io/psyc7709/Schedule.html#8_apa_papers_using_papaja)</t>
-  </si>
-  <si>
-    <t>[Shiny Web Apps](https://crumplab.github.io/psyc7709/Schedule.html#9_shiny_web_apps)</t>
-  </si>
-  <si>
-    <t>[Optimizing R Scripts](https://crumplab.github.io/psyc7709/Schedule.html#10_optimizing_r_scripts)</t>
-  </si>
-  <si>
-    <t>[Open Science and Final project planning](https://crumplab.github.io/psyc7709/Schedule.html#11_open_science_and_final_project_planning)</t>
-  </si>
-  <si>
-    <t>[Final Project Papers due](https://crumplab.github.io/psyc7709/Schedule.html#15_final_project)</t>
-  </si>
-  <si>
-    <t>[Data-Visualization](https://crumplab.github.io/psyc7709/Schedule.html#4_data-visualization)</t>
-  </si>
-  <si>
-    <t>[Data-Wrangling](https://crumplab.github.io/psyc7709/Schedule.html#5_data-wrangling)</t>
-  </si>
-  <si>
-    <t>week 4 due (data-vis)</t>
-  </si>
-  <si>
-    <t>week 5 due (data-wrangling)</t>
-  </si>
-  <si>
-    <t>Snow day (make up W May 15th)</t>
-  </si>
-  <si>
-    <t>W May 15</t>
+    <t>Th 8th Oct</t>
+  </si>
+  <si>
+    <t>Th 22nd Oct</t>
+  </si>
+  <si>
+    <t>Th 29th Oct</t>
+  </si>
+  <si>
+    <t>Th 3rd Sep</t>
+  </si>
+  <si>
+    <t>Th 10th Sep</t>
+  </si>
+  <si>
+    <t>Th 17th Sep</t>
+  </si>
+  <si>
+    <t>Th 24th Sep</t>
+  </si>
+  <si>
+    <t>Th 1st Oct</t>
+  </si>
+  <si>
+    <t>Th 15th Oct</t>
+  </si>
+  <si>
+    <t>Th  5th Nov</t>
+  </si>
+  <si>
+    <t>Th 19th Nov</t>
+  </si>
+  <si>
+    <t>Th 26 Nov</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Th 3rd Dec</t>
+  </si>
+  <si>
+    <t>Th 10th Dec</t>
+  </si>
+  <si>
+    <t>Th 17th Dec</t>
+  </si>
+  <si>
+    <t>[Getting Started](https://crumplab.github.io/psyc7709Lab/articles/Getting_Started.html)</t>
+  </si>
+  <si>
+    <t>Lab Topic</t>
+  </si>
+  <si>
+    <t>Assignment Due</t>
+  </si>
+  <si>
+    <t>Th 12th Nov</t>
+  </si>
+  <si>
+    <t>Semester Project I</t>
+  </si>
+  <si>
+    <t>Semester Project II</t>
+  </si>
+  <si>
+    <t>Semester Project III</t>
+  </si>
+  <si>
+    <t>Semester Project IV</t>
+  </si>
+  <si>
+    <t>Lab 1 Descriptives</t>
+  </si>
+  <si>
+    <t>Lab 2 Variance and Transformed scores</t>
+  </si>
+  <si>
+    <t>Lab 3 Distributions I</t>
+  </si>
+  <si>
+    <t>Lab 4 Distributions II</t>
+  </si>
+  <si>
+    <t>Th 27 Aug</t>
+  </si>
+  <si>
+    <t>Lab 5 Distributions III</t>
+  </si>
+  <si>
+    <t>Lab 6 Significance Testing</t>
+  </si>
+  <si>
+    <t>Lab 7 Binomial Test</t>
+  </si>
+  <si>
+    <t>Lab 8 Z-test &amp; confidence intervals</t>
+  </si>
+  <si>
+    <t>Lab 9 Chi-square</t>
+  </si>
+  <si>
+    <t>Lab 11 Correlation</t>
+  </si>
+  <si>
+    <t>Lab 12 Linear Regression</t>
+  </si>
+  <si>
+    <t>Lab 10 t-distributions</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -235,6 +200,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -502,11 +470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,7 +484,7 @@
     <col min="3" max="3" width="71.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,240 +492,241 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>11</v>
-      </c>
       <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF64B69-D3E8-7542-8481-186293B11E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2FDA05-DACE-C54D-A64A-0565DD491F0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,12 +111,6 @@
     <t>Semester Project IV</t>
   </si>
   <si>
-    <t>Lab 1 Descriptives</t>
-  </si>
-  <si>
-    <t>Lab 2 Variance and Transformed scores</t>
-  </si>
-  <si>
     <t>Lab 3 Distributions I</t>
   </si>
   <si>
@@ -151,6 +145,12 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>Lab 1 Basics</t>
+  </si>
+  <si>
+    <t>Lab 2 Descriptives</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,10 +511,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -542,7 +542,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -556,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -581,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -595,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -609,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -623,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -648,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -662,7 +662,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -695,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -709,7 +709,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -726,7 +726,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2FDA05-DACE-C54D-A64A-0565DD491F0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667AFD18-908D-C54B-AF9D-02C29F08254F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,10 +147,10 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>Lab 1 Basics</t>
-  </si>
-  <si>
     <t>Lab 2 Descriptives</t>
+  </si>
+  <si>
+    <t>[Lab 1 Basics](https://crumplab.github.io/psyc7709Lab/articles/Lab1_Basics.html)</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,7 +514,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667AFD18-908D-C54B-AF9D-02C29F08254F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E84089-EADA-3145-8E25-AAFA5B9CFED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E84089-EADA-3145-8E25-AAFA5B9CFED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7722B7-40D1-9F4D-A892-A1A6EE68D605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,10 +147,10 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>Lab 2 Descriptives</t>
-  </si>
-  <si>
     <t>[Lab 1 Basics](https://crumplab.github.io/psyc7709Lab/articles/Lab1_Basics.html)</t>
+  </si>
+  <si>
+    <t>[Lab 2 Descriptives](https://crumplab.github.io/psyc7709Lab/articles/Lab2_Descriptives.html)</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,13 +514,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7722B7-40D1-9F4D-A892-A1A6EE68D605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D630BDE0-1273-6044-9A5B-E85044E8DE79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Semester Project IV</t>
   </si>
   <si>
-    <t>Lab 3 Distributions I</t>
-  </si>
-  <si>
     <t>Lab 4 Distributions II</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>[Lab 2 Descriptives](https://crumplab.github.io/psyc7709Lab/articles/Lab2_Descriptives.html)</t>
+  </si>
+  <si>
+    <t>[Lab 3 Distributions I](https://crumplab.github.io/psyc7709Lab/articles/Lab3_Distributions_I.html)</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,10 +511,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -528,13 +528,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -542,7 +542,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -556,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -581,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -595,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -609,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -623,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -648,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -662,7 +662,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -695,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -709,7 +709,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -726,7 +726,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D630BDE0-1273-6044-9A5B-E85044E8DE79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E8C5A1-C34F-EB4C-B98D-1FEDD56F2D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Week</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>[Lab 3 Distributions I](https://crumplab.github.io/psyc7709Lab/articles/Lab3_Distributions_I.html)</t>
+  </si>
+  <si>
+    <t>Th 22th Oct</t>
+  </si>
+  <si>
+    <t>Th 3 Dec</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +551,7 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -558,6 +564,9 @@
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -569,9 +578,6 @@
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -612,7 +618,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -665,7 +671,7 @@
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E8C5A1-C34F-EB4C-B98D-1FEDD56F2D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AFE37C-4E0C-D643-AD40-89C29FD76056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AFE37C-4E0C-D643-AD40-89C29FD76056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8557DC00-FD0C-B343-AD0E-295C3417B354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Semester Project IV</t>
   </si>
   <si>
-    <t>Lab 4 Distributions II</t>
-  </si>
-  <si>
     <t>Th 27 Aug</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>Th 3 Dec</t>
+  </si>
+  <si>
+    <t>[Lab 4 Distributions II](https://crumplab.github.io/psyc7709Lab/articles/Lab4_Distributions_II.html)</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -548,13 +548,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -562,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -587,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -601,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -615,10 +615,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -629,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -654,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -668,10 +668,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -701,7 +701,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -715,7 +715,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -732,7 +732,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8557DC00-FD0C-B343-AD0E-295C3417B354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CCA5D0-C77D-D64D-8FEE-F71078FA03C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CCA5D0-C77D-D64D-8FEE-F71078FA03C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCF6CC6-80F9-4E44-8113-0DE50EC41E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Th 27 Aug</t>
   </si>
   <si>
-    <t>Lab 5 Distributions III</t>
-  </si>
-  <si>
     <t>Lab 6 Significance Testing</t>
   </si>
   <si>
@@ -157,13 +154,16 @@
   </si>
   <si>
     <t>[Lab 4 Distributions II](https://crumplab.github.io/psyc7709Lab/articles/Lab4_Distributions_II.html)</t>
+  </si>
+  <si>
+    <t>[Lab 5 Sampling Distributions](https://crumplab.github.io/psyc7709Lab/articles/Lab5_Sampling_Distributions.html)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -480,17 +480,17 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="34">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -512,7 +512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="17">
       <c r="A3">
         <v>1</v>
       </c>
@@ -520,13 +520,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="51">
       <c r="A4">
         <v>2</v>
       </c>
@@ -534,13 +534,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="34">
       <c r="A5">
         <v>3</v>
       </c>
@@ -548,13 +548,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6">
         <v>4</v>
       </c>
@@ -562,13 +562,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="17">
       <c r="A7">
         <v>5</v>
       </c>
@@ -579,7 +579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="51">
       <c r="A8">
         <v>6</v>
       </c>
@@ -587,13 +587,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="17">
       <c r="A9">
         <v>7</v>
       </c>
@@ -601,13 +601,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="17">
       <c r="A10">
         <v>8</v>
       </c>
@@ -615,13 +615,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17">
       <c r="A11">
         <v>9</v>
       </c>
@@ -629,13 +629,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="17">
       <c r="A12">
         <v>10</v>
       </c>
@@ -646,7 +646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="17">
       <c r="A13">
         <v>11</v>
       </c>
@@ -654,13 +654,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="17">
       <c r="A14">
         <v>12</v>
       </c>
@@ -668,13 +668,13 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17">
       <c r="A15">
         <v>13</v>
       </c>
@@ -685,7 +685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -693,7 +693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17">
       <c r="A17">
         <v>14</v>
       </c>
@@ -701,13 +701,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17">
       <c r="A18">
         <v>15</v>
       </c>
@@ -715,13 +715,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17">
       <c r="A19">
         <v>16</v>
       </c>
@@ -732,7 +732,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCF6CC6-80F9-4E44-8113-0DE50EC41E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5BCF77-E3E4-C244-AEE0-2BB86293A768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Week</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Semester Project III</t>
   </si>
   <si>
-    <t>Semester Project IV</t>
-  </si>
-  <si>
     <t>Th 27 Aug</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>Lab 10 t-distributions</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>[Lab 1 Basics](https://crumplab.github.io/psyc7709Lab/articles/Lab1_Basics.html)</t>
   </si>
   <si>
@@ -157,6 +151,9 @@
   </si>
   <si>
     <t>[Lab 5 Sampling Distributions](https://crumplab.github.io/psyc7709Lab/articles/Lab5_Sampling_Distributions.html)</t>
+  </si>
+  <si>
+    <t>Semester Project DUE</t>
   </si>
 </sst>
 </file>
@@ -480,7 +477,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -517,10 +514,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -534,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -548,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -562,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -587,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -601,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -615,10 +612,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17">
@@ -629,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -654,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -668,10 +665,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17">
@@ -701,7 +698,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -715,7 +712,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -729,10 +726,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5BCF77-E3E4-C244-AEE0-2BB86293A768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8710F5-F919-5C4A-B633-3D76CB8DF0B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Th 27 Aug</t>
   </si>
   <si>
-    <t>Lab 6 Significance Testing</t>
-  </si>
-  <si>
     <t>Lab 7 Binomial Test</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Semester Project DUE</t>
+  </si>
+  <si>
+    <t>[Lab 6 Statistical Inference](https://crumplab.github.io/psyc7709Lab/articles/Lab6_Statistical_Inference.html)</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -517,7 +517,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -531,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -559,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -584,13 +584,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17">
+    <row r="9" spans="1:4" ht="51">
       <c r="A9">
         <v>7</v>
       </c>
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -612,10 +612,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17">
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -651,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -665,10 +665,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17">
@@ -698,7 +698,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -712,7 +712,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -726,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8710F5-F919-5C4A-B633-3D76CB8DF0B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5076CBF2-306D-154D-AB52-E8289638DD7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5076CBF2-306D-154D-AB52-E8289638DD7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96758A91-2580-9441-80E6-3755EE68DFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Th 27 Aug</t>
   </si>
   <si>
-    <t>Lab 7 Binomial Test</t>
-  </si>
-  <si>
     <t>Lab 8 Z-test &amp; confidence intervals</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>[Lab 6 Statistical Inference](https://crumplab.github.io/psyc7709Lab/articles/Lab6_Statistical_Inference.html)</t>
+  </si>
+  <si>
+    <t>[Lab 7 Binomial Test](https://crumplab.github.io/psyc7709Lab/articles/Lab7_Binomial.html)</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -531,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -559,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -584,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -598,13 +598,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17">
+    <row r="10" spans="1:4" ht="34">
       <c r="A10">
         <v>8</v>
       </c>
@@ -612,10 +612,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17">
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -651,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -665,10 +665,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17">
@@ -698,7 +698,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -712,7 +712,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -726,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96758A91-2580-9441-80E6-3755EE68DFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9B3CC5-5DE8-464C-B4DD-BDC236D3105A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Th 27 Aug</t>
   </si>
   <si>
-    <t>Lab 8 Z-test &amp; confidence intervals</t>
-  </si>
-  <si>
     <t>Lab 9 Chi-square</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>[Lab 7 Binomial Test](https://crumplab.github.io/psyc7709Lab/articles/Lab7_Binomial.html)</t>
+  </si>
+  <si>
+    <t>[Lab 8 Z-tests](https://crumplab.github.io/psyc7709Lab/articles/Lab8_Normal.html)</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -517,7 +517,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -531,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -559,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -584,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -612,13 +612,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34">
       <c r="A11">
         <v>9</v>
       </c>
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -651,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -665,10 +665,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17">
@@ -698,7 +698,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -712,7 +712,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -726,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9B3CC5-5DE8-464C-B4DD-BDC236D3105A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FCA034-5CAF-C54F-B674-7F3A49247198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Th 27 Aug</t>
   </si>
   <si>
-    <t>Lab 9 Chi-square</t>
-  </si>
-  <si>
     <t>Lab 11 Correlation</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>[Lab 8 Z-tests](https://crumplab.github.io/psyc7709Lab/articles/Lab8_Normal.html)</t>
+  </si>
+  <si>
+    <t>[Lab 9 Chi-square](https://crumplab.github.io/psyc7709Lab/articles/Lab9_Chisquare.html)</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -517,7 +517,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -531,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -559,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -584,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -612,10 +612,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34">
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -643,7 +643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17">
+    <row r="13" spans="1:4" ht="34">
       <c r="A13">
         <v>11</v>
       </c>
@@ -651,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -665,10 +665,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17">
@@ -698,7 +698,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -712,7 +712,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -726,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FCA034-5CAF-C54F-B674-7F3A49247198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6899D6C-A46A-3148-B0B2-09D2806EF4EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,9 +117,6 @@
     <t>Lab 12 Linear Regression</t>
   </si>
   <si>
-    <t>Lab 10 t-distributions</t>
-  </si>
-  <si>
     <t>[Lab 1 Basics](https://crumplab.github.io/psyc7709Lab/articles/Lab1_Basics.html)</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>[Lab 9 Chi-square](https://crumplab.github.io/psyc7709Lab/articles/Lab9_Chisquare.html)</t>
+  </si>
+  <si>
+    <t>[Lab 10 t tests](https://crumplab.github.io/psyc7709Lab/articles/Lab10_ttest.html)</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -517,7 +517,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -531,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -559,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -584,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -612,10 +612,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34">
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -651,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -665,10 +665,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17">
@@ -726,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/psyc7709Lab/vignettes/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/rstatsmethods/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6899D6C-A46A-3148-B0B2-09D2806EF4EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0182A0-8F60-C64E-8614-EC1A6DFEE0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17120" yWindow="460" windowWidth="16220" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="460" windowWidth="25140" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>Week</t>
   </si>
@@ -36,131 +36,215 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Before class</t>
-  </si>
-  <si>
-    <t>Th 8th Oct</t>
-  </si>
-  <si>
-    <t>Th 22nd Oct</t>
-  </si>
-  <si>
-    <t>Th 29th Oct</t>
-  </si>
-  <si>
-    <t>Th 3rd Sep</t>
-  </si>
-  <si>
-    <t>Th 10th Sep</t>
-  </si>
-  <si>
-    <t>Th 17th Sep</t>
-  </si>
-  <si>
-    <t>Th 24th Sep</t>
-  </si>
-  <si>
-    <t>Th 1st Oct</t>
-  </si>
-  <si>
-    <t>Th 15th Oct</t>
-  </si>
-  <si>
-    <t>Th  5th Nov</t>
-  </si>
-  <si>
-    <t>Th 19th Nov</t>
-  </si>
-  <si>
-    <t>Th 26 Nov</t>
-  </si>
-  <si>
     <t>Thanksgiving</t>
   </si>
   <si>
-    <t>Th 3rd Dec</t>
-  </si>
-  <si>
-    <t>Th 10th Dec</t>
-  </si>
-  <si>
-    <t>Th 17th Dec</t>
-  </si>
-  <si>
-    <t>[Getting Started](https://crumplab.github.io/psyc7709Lab/articles/Getting_Started.html)</t>
-  </si>
-  <si>
     <t>Lab Topic</t>
   </si>
   <si>
     <t>Assignment Due</t>
   </si>
   <si>
-    <t>Th 12th Nov</t>
-  </si>
-  <si>
-    <t>Semester Project I</t>
-  </si>
-  <si>
-    <t>Semester Project II</t>
-  </si>
-  <si>
-    <t>Semester Project III</t>
-  </si>
-  <si>
-    <t>Th 27 Aug</t>
-  </si>
-  <si>
-    <t>Lab 11 Correlation</t>
-  </si>
-  <si>
-    <t>Lab 12 Linear Regression</t>
-  </si>
-  <si>
-    <t>[Lab 1 Basics](https://crumplab.github.io/psyc7709Lab/articles/Lab1_Basics.html)</t>
-  </si>
-  <si>
-    <t>[Lab 2 Descriptives](https://crumplab.github.io/psyc7709Lab/articles/Lab2_Descriptives.html)</t>
-  </si>
-  <si>
-    <t>[Lab 3 Distributions I](https://crumplab.github.io/psyc7709Lab/articles/Lab3_Distributions_I.html)</t>
-  </si>
-  <si>
-    <t>Th 22th Oct</t>
-  </si>
-  <si>
-    <t>Th 3 Dec</t>
-  </si>
-  <si>
-    <t>[Lab 4 Distributions II](https://crumplab.github.io/psyc7709Lab/articles/Lab4_Distributions_II.html)</t>
-  </si>
-  <si>
-    <t>[Lab 5 Sampling Distributions](https://crumplab.github.io/psyc7709Lab/articles/Lab5_Sampling_Distributions.html)</t>
-  </si>
-  <si>
-    <t>Semester Project DUE</t>
-  </si>
-  <si>
-    <t>[Lab 6 Statistical Inference](https://crumplab.github.io/psyc7709Lab/articles/Lab6_Statistical_Inference.html)</t>
-  </si>
-  <si>
-    <t>[Lab 7 Binomial Test](https://crumplab.github.io/psyc7709Lab/articles/Lab7_Binomial.html)</t>
-  </si>
-  <si>
-    <t>[Lab 8 Z-tests](https://crumplab.github.io/psyc7709Lab/articles/Lab8_Normal.html)</t>
-  </si>
-  <si>
-    <t>[Lab 9 Chi-square](https://crumplab.github.io/psyc7709Lab/articles/Lab9_Chisquare.html)</t>
-  </si>
-  <si>
-    <t>[Lab 10 t tests](https://crumplab.github.io/psyc7709Lab/articles/Lab10_ttest.html)</t>
+    <t>W 8/25/21</t>
+  </si>
+  <si>
+    <t>M 8/30/21</t>
+  </si>
+  <si>
+    <t>W 9/1/21</t>
+  </si>
+  <si>
+    <t>M 9/6/21</t>
+  </si>
+  <si>
+    <t>W 9/8/21</t>
+  </si>
+  <si>
+    <t>M 9/13/21</t>
+  </si>
+  <si>
+    <t>W 9/15/21</t>
+  </si>
+  <si>
+    <t>M 9/20/21</t>
+  </si>
+  <si>
+    <t>W 9/22/21</t>
+  </si>
+  <si>
+    <t>M 9/27/21</t>
+  </si>
+  <si>
+    <t>W 9/29/21</t>
+  </si>
+  <si>
+    <t>M 10/4/21</t>
+  </si>
+  <si>
+    <t>W 10/6/21</t>
+  </si>
+  <si>
+    <t>M 10/11/21</t>
+  </si>
+  <si>
+    <t>W 10/13/21</t>
+  </si>
+  <si>
+    <t>M 10/18/21</t>
+  </si>
+  <si>
+    <t>W 10/20/21</t>
+  </si>
+  <si>
+    <t>M 10/25/21</t>
+  </si>
+  <si>
+    <t>W 10/27/21</t>
+  </si>
+  <si>
+    <t>M 11/1/21</t>
+  </si>
+  <si>
+    <t>W 11/3/21</t>
+  </si>
+  <si>
+    <t>M 11/8/21</t>
+  </si>
+  <si>
+    <t>W 11/10/21</t>
+  </si>
+  <si>
+    <t>M 11/15/21</t>
+  </si>
+  <si>
+    <t>W 11/17/21</t>
+  </si>
+  <si>
+    <t>M 11/22/21</t>
+  </si>
+  <si>
+    <t>W 11/24/21</t>
+  </si>
+  <si>
+    <t>M 11/29/21</t>
+  </si>
+  <si>
+    <t>W 12/1/21</t>
+  </si>
+  <si>
+    <t>M 12/6/21</t>
+  </si>
+  <si>
+    <t>W 12/8/21</t>
+  </si>
+  <si>
+    <t>M 12/13/21</t>
+  </si>
+  <si>
+    <t>T 12/14/21</t>
+  </si>
+  <si>
+    <t>W 12/15/21</t>
+  </si>
+  <si>
+    <t>NO CLASS</t>
+  </si>
+  <si>
+    <t>READING DAY</t>
+  </si>
+  <si>
+    <t>[Getting Started](https://crumplab.github.io/rstatsmethods/articles/Getting_Started.html)</t>
+  </si>
+  <si>
+    <t>[Lab 1 Basics](https://crumplab.github.io/rstatsmethods/articles/Lab1_Basics.html)</t>
+  </si>
+  <si>
+    <t>[Lab 2 Descriptives](https://crumplab.github.io/rstatsmethods/articles/Lab2_Descriptives.html)</t>
+  </si>
+  <si>
+    <t>[Lab 3 Distributions I](https://crumplab.github.io/rstatsmethods/articles/Lab3_Distributions_I.html)</t>
+  </si>
+  <si>
+    <t>[Lab 4 Distributions II](https://crumplab.github.io/rstatsmethods/articles/Lab4_Distributions_II.html)</t>
+  </si>
+  <si>
+    <t>[Lab 5 Sampling Distributions](https://crumplab.github.io/rstatsmethods/articles/Lab5_Sampling_Distributions.html)</t>
+  </si>
+  <si>
+    <t>[Lab 6 Statistical Inference](https://crumplab.github.io/rstatsmethods/articles/Lab6_Statistical_Inference.html)</t>
+  </si>
+  <si>
+    <t>[Lab 7 Binomial Test](https://crumplab.github.io/rstatsmethods/articles/Lab7_Binomial.html)</t>
+  </si>
+  <si>
+    <t>[Lab 8 Z-tests](https://crumplab.github.io/rstatsmethods/articles/Lab8_Normal.html)</t>
+  </si>
+  <si>
+    <t>[Lab 9 Chi-square](https://crumplab.github.io/rstatsmethods/articles/Lab9_Chisquare.html)</t>
+  </si>
+  <si>
+    <t>[Lab 10 t tests](https://crumplab.github.io/rstatsmethods/articles/Lab10_ttest.html)</t>
+  </si>
+  <si>
+    <t>[Lab 11 Correlation](https://www.crumplab.com/rstatsmethods/articles/Stats1/Lab11_Correlation.html)</t>
+  </si>
+  <si>
+    <t>[Lab 12 Linear Regression](https://www.crumplab.com/rstatsmethods/articles/Stats1/Lab12_Regression.html)</t>
+  </si>
+  <si>
+    <t>Lab 1  due</t>
+  </si>
+  <si>
+    <t>Lab 2 due</t>
+  </si>
+  <si>
+    <t>lab 3 due</t>
+  </si>
+  <si>
+    <t>lab 4 due</t>
+  </si>
+  <si>
+    <t>lab 5 due</t>
+  </si>
+  <si>
+    <t>lab 6 due</t>
+  </si>
+  <si>
+    <t>lab 7 due</t>
+  </si>
+  <si>
+    <t>lab 8 due</t>
+  </si>
+  <si>
+    <t>lab 9 due</t>
+  </si>
+  <si>
+    <t>lab 10 due</t>
+  </si>
+  <si>
+    <t>lab 11 due</t>
+  </si>
+  <si>
+    <t>lab 12 due</t>
+  </si>
+  <si>
+    <t>Final Class and FINAL PROJECT DUE</t>
+  </si>
+  <si>
+    <t>[Semester Project I](https://www.crumplab.com/rstatsmethods/articles/Stats1/semester_project.html)</t>
+  </si>
+  <si>
+    <t>[Semester Project II](https://www.crumplab.com/rstatsmethods/articles/Stats1/semester_project.html)</t>
+  </si>
+  <si>
+    <t>[Semester Project III](https://www.crumplab.com/rstatsmethods/articles/Stats1/semester_project.html)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -474,20 +558,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="73.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,241 +581,390 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17">
-      <c r="A3">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="51">
-      <c r="A4">
-        <v>2</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="51">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="34">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
+      <c r="C35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/rstatsmethods/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0182A0-8F60-C64E-8614-EC1A6DFEE0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F437C806-BE3E-EB4A-B486-F5B40020C51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="460" windowWidth="25140" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,45 +153,6 @@
     <t>READING DAY</t>
   </si>
   <si>
-    <t>[Getting Started](https://crumplab.github.io/rstatsmethods/articles/Getting_Started.html)</t>
-  </si>
-  <si>
-    <t>[Lab 1 Basics](https://crumplab.github.io/rstatsmethods/articles/Lab1_Basics.html)</t>
-  </si>
-  <si>
-    <t>[Lab 2 Descriptives](https://crumplab.github.io/rstatsmethods/articles/Lab2_Descriptives.html)</t>
-  </si>
-  <si>
-    <t>[Lab 3 Distributions I](https://crumplab.github.io/rstatsmethods/articles/Lab3_Distributions_I.html)</t>
-  </si>
-  <si>
-    <t>[Lab 4 Distributions II](https://crumplab.github.io/rstatsmethods/articles/Lab4_Distributions_II.html)</t>
-  </si>
-  <si>
-    <t>[Lab 5 Sampling Distributions](https://crumplab.github.io/rstatsmethods/articles/Lab5_Sampling_Distributions.html)</t>
-  </si>
-  <si>
-    <t>[Lab 6 Statistical Inference](https://crumplab.github.io/rstatsmethods/articles/Lab6_Statistical_Inference.html)</t>
-  </si>
-  <si>
-    <t>[Lab 7 Binomial Test](https://crumplab.github.io/rstatsmethods/articles/Lab7_Binomial.html)</t>
-  </si>
-  <si>
-    <t>[Lab 8 Z-tests](https://crumplab.github.io/rstatsmethods/articles/Lab8_Normal.html)</t>
-  </si>
-  <si>
-    <t>[Lab 9 Chi-square](https://crumplab.github.io/rstatsmethods/articles/Lab9_Chisquare.html)</t>
-  </si>
-  <si>
-    <t>[Lab 10 t tests](https://crumplab.github.io/rstatsmethods/articles/Lab10_ttest.html)</t>
-  </si>
-  <si>
-    <t>[Lab 11 Correlation](https://www.crumplab.com/rstatsmethods/articles/Stats1/Lab11_Correlation.html)</t>
-  </si>
-  <si>
-    <t>[Lab 12 Linear Regression](https://www.crumplab.com/rstatsmethods/articles/Stats1/Lab12_Regression.html)</t>
-  </si>
-  <si>
     <t>Lab 1  due</t>
   </si>
   <si>
@@ -231,13 +192,52 @@
     <t>Final Class and FINAL PROJECT DUE</t>
   </si>
   <si>
-    <t>[Semester Project I](https://www.crumplab.com/rstatsmethods/articles/Stats1/semester_project.html)</t>
-  </si>
-  <si>
-    <t>[Semester Project II](https://www.crumplab.com/rstatsmethods/articles/Stats1/semester_project.html)</t>
-  </si>
-  <si>
-    <t>[Semester Project III](https://www.crumplab.com/rstatsmethods/articles/Stats1/semester_project.html)</t>
+    <t>[Getting Started](https://crumplab.github.io/rstatsmethods/articles/Stats1/Getting_Started.html)</t>
+  </si>
+  <si>
+    <t>[Lab 1 Basics](https://crumplab.github.io/rstatsmethods/articles/Stats1/Lab1_Basics.html)</t>
+  </si>
+  <si>
+    <t>[Lab 2 Descriptives](https://crumplab.github.io/rstatsmethods/articles/Stats1/Lab2_Descriptives.html)</t>
+  </si>
+  <si>
+    <t>[Lab 3 Distributions I](https://crumplab.github.io/rstatsmethods/articles/Stats1/Lab3_Distributions_I.html)</t>
+  </si>
+  <si>
+    <t>[Lab 4 Distributions II](https://crumplab.github.io/rstatsmethods/articles/Stats1/Lab4_Distributions_II.html)</t>
+  </si>
+  <si>
+    <t>[Semester Project I](https://www.crumplab.com/rstatsmethods/articles/Stats1/Stats1/semester_project.html)</t>
+  </si>
+  <si>
+    <t>[Lab 5 Sampling Distributions](https://crumplab.github.io/rstatsmethods/articles/Stats1/Lab5_Sampling_Distributions.html)</t>
+  </si>
+  <si>
+    <t>[Lab 6 Statistical Inference](https://crumplab.github.io/rstatsmethods/articles/Stats1/Lab6_Statistical_Inference.html)</t>
+  </si>
+  <si>
+    <t>[Lab 7 Binomial Test](https://crumplab.github.io/rstatsmethods/articles/Stats1/Lab7_Binomial.html)</t>
+  </si>
+  <si>
+    <t>[Lab 8 Z-tests](https://crumplab.github.io/rstatsmethods/articles/Stats1/Lab8_Normal.html)</t>
+  </si>
+  <si>
+    <t>[Semester Project II](https://www.crumplab.com/rstatsmethods/articles/Stats1/Stats1/semester_project.html)</t>
+  </si>
+  <si>
+    <t>[Lab 9 Chi-square](https://crumplab.github.io/rstatsmethods/articles/Stats1/Lab9_Chisquare.html)</t>
+  </si>
+  <si>
+    <t>[Lab 10 t tests](https://crumplab.github.io/rstatsmethods/articles/Stats1/Lab10_ttest.html)</t>
+  </si>
+  <si>
+    <t>[Semester Project III](https://www.crumplab.com/rstatsmethods/articles/Stats1/Stats1/semester_project.html)</t>
+  </si>
+  <si>
+    <t>[Lab 11 Correlation](https://www.crumplab.com/rstatsmethods/articles/Stats1/Stats1/Lab11_Correlation.html)</t>
+  </si>
+  <si>
+    <t>[Lab 12 Linear Regression](https://www.crumplab.com/rstatsmethods/articles/Stats1/Stats1/Lab12_Regression.html)</t>
   </si>
 </sst>
 </file>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -606,7 +606,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -615,7 +615,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -648,10 +648,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -672,7 +672,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -681,10 +681,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -696,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -705,10 +705,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -720,7 +720,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -729,7 +729,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -750,10 +750,10 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -765,7 +765,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -774,10 +774,10 @@
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -789,7 +789,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -810,10 +810,10 @@
         <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -822,7 +822,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -834,10 +834,10 @@
         <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -846,7 +846,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -857,7 +857,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -865,10 +865,10 @@
         <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -879,7 +879,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -887,10 +887,10 @@
         <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -901,7 +901,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -909,7 +909,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -920,10 +920,10 @@
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -931,7 +931,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -942,10 +942,10 @@
         <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -961,10 +961,10 @@
         <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/rstatsmethods/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F437C806-BE3E-EB4A-B486-F5B40020C51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C191E82-D788-C444-8B13-D0F05ABD9908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="460" windowWidth="25140" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25140" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
     <t>Lab Topic</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>lab 6 due</t>
   </si>
   <si>
-    <t>lab 7 due</t>
-  </si>
-  <si>
     <t>lab 8 due</t>
   </si>
   <si>
@@ -238,6 +232,12 @@
   </si>
   <si>
     <t>[Lab 12 Linear Regression](https://www.crumplab.com/rstatsmethods/articles/Stats1/Stats1/Lab12_Regression.html)</t>
+  </si>
+  <si>
+    <t>Lab 7 due</t>
+  </si>
+  <si>
+    <t>Semester project IIII</t>
   </si>
 </sst>
 </file>
@@ -561,14 +561,14 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="108" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="73.33203125" customWidth="1"/>
   </cols>
@@ -581,10 +581,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -592,10 +592,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -603,19 +603,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -624,31 +624,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -657,79 +660,79 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -738,76 +741,79 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>62</v>
@@ -817,80 +823,77 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -898,73 +901,70 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>16</v>
       </c>
       <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/course_docs/Schedule.xlsx
+++ b/vignettes/course_docs/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/rstatsmethods/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C191E82-D788-C444-8B13-D0F05ABD9908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEAA881-0DC0-5C45-8534-09E6A40278B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25140" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25140" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>Week</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>[Lab 4 Distributions II](https://crumplab.github.io/rstatsmethods/articles/Stats1/Lab4_Distributions_II.html)</t>
-  </si>
-  <si>
-    <t>[Semester Project I](https://www.crumplab.com/rstatsmethods/articles/Stats1/Stats1/semester_project.html)</t>
   </si>
   <si>
     <t>[Lab 5 Sampling Distributions](https://crumplab.github.io/rstatsmethods/articles/Stats1/Lab5_Sampling_Distributions.html)</t>
@@ -561,7 +558,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,10 +672,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -687,7 +681,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -699,10 +693,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -711,7 +702,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -723,7 +717,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -732,7 +726,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -746,9 +743,6 @@
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -756,7 +750,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -768,10 +765,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -780,7 +774,10 @@
         <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -792,10 +789,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -804,7 +798,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -816,10 +813,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -828,7 +822,10 @@
         <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -840,7 +837,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -849,7 +846,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -860,7 +857,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
         <v>47</v>
@@ -871,7 +868,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -882,7 +879,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
         <v>48</v>
@@ -893,7 +890,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -904,7 +901,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -912,7 +909,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -923,7 +920,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
         <v>49</v>
@@ -934,7 +931,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -945,7 +942,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
         <v>50</v>
